--- a/outputs/report.xlsx
+++ b/outputs/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -104,10 +104,19 @@
     <t>MVTRVGSGFSVQRVWLLLVIVVVLCGSVTQQASAWFTNDECPGVMGNRDLYEKVAWVCNDCANIFRNNDVGVMCKKDCFHTMDFLWCVYATERHGEIDQFRKWVSILRAGRK</t>
   </si>
   <si>
+    <t>['A0A2H3E793', '']</t>
+  </si>
+  <si>
     <t>['A0A177DNX4', '']</t>
   </si>
   <si>
+    <t>['A0A177DNY2', 'DNA binding transcription factor activity [GO:0003700]']</t>
+  </si>
+  <si>
     <t>['A0A1C5BM10', '']</t>
+  </si>
+  <si>
+    <t>['A0A1X6MNP4', '']</t>
   </si>
   <si>
     <t>Q890K8</t>
@@ -644,20 +653,23 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -680,22 +692,22 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -714,20 +726,23 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -750,22 +765,22 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -787,20 +802,23 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
